--- a/王琚/论证，立项与启动/6.风险分析.xlsx
+++ b/王琚/论证，立项与启动/6.风险分析.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,22 +33,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>人们认可度不高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经用惯了已有的购物网站，不太习惯新兴的事物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>产品推广度不够</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产品推广需要大量资金，主要针对人群可能定位不准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>市场不能快速抢占</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,6 +50,26 @@
   </si>
   <si>
     <t>事前调查准备工作不充足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在很多签到项目，需要提高产品的竞争力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品推广需要大量资金，主要针对人群需要更加广泛一些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息安全管理风险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人脸识别公司需要借助智能硬件，摄像头等设备，征集和调用大量用户的脸部信息，这必然涉及到用户的隐私信息。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -108,10 +116,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -392,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:N3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -409,46 +417,46 @@
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -465,12 +473,12 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -487,12 +495,12 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -508,37 +516,61 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="E1:N2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:N3"/>
+  <mergeCells count="13">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:N7"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E4:N4"/>
     <mergeCell ref="E5:N5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:N6"/>
     <mergeCell ref="B4:D4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="E1:N2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/王琚/论证，立项与启动/6.风险分析.xlsx
+++ b/王琚/论证，立项与启动/6.风险分析.xlsx
@@ -57,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已存在很多签到项目，需要提高产品的竞争力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>产品推广需要大量资金，主要针对人群需要更加广泛一些</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,6 +66,10 @@
   </si>
   <si>
     <t>人脸识别公司需要借助智能硬件，摄像头等设备，征集和调用大量用户的脸部信息，这必然涉及到用户的隐私信息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在很多签到项目，需要提高产品本身的竞争力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,11 +115,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -402,162 +402,167 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="E1:N2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:N7"/>
     <mergeCell ref="B5:D5"/>
@@ -566,11 +571,6 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:N6"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="E1:N2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
